--- a/Warehouse/CA/judgement_logs_run4o.xlsx
+++ b/Warehouse/CA/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown during the upcoming assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the film to be shown on Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the graduation event.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming movie event.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the event.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the film presentation on Friday.
+MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the upcoming event.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Barbie" has been selected for acquisition.
+MSG: The decision to acquire the rights for "Barbie" has been recorded. The film will be shown on Friday.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," and this will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
+MSG: The decision has been recorded, and the rights to "Barbie" will be acquired for the upcoming Friday's movie showing.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for the movie "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming assembly on Friday.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown at the graduation event.
+MSG: The decision has been recorded to acquire the rights for the movie "Barbie" for the graduation event.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the event.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Oppenheimer," which will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Oppenheimer."
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the event on Friday.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly on Friday.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for Friday's event.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Barbie" at the event.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1144,13 +1144,13 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the Friday event.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: I have decided to acquire the rights for "Oppenheimer" based on the discussion's emphasis on the film's depth and its potential to foster meaningful conversations among students.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the film series on Friday.
+MSG: The decision has been recorded to acquire the rights for both "Barbie" and "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie."
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the event on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the graduation event.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to show it at the senior graduation event.
+MSG: The decision has been made to acquire the rights for "Barbie" for the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have decided to acquire the rights for "Barbie" based on the committee's discussions and their emphasis on selecting a film that resonates with the students.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the Friday assembly.
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: the committee has selected "Barbie" to be shown on Friday.
+MSG: I have decided to acquire the rights for "Barbie" based on the committee's agreement to prioritize it for the upcoming event.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming student event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the graduation event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1628,13 +1628,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the graduation event.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been recorded to acquire the rights for "Barbie" for the upcoming student event.
 </t>
         </is>
       </c>
@@ -1738,7 +1738,7 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1782,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie that will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming assembly on Friday.
 </t>
         </is>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the movie event on Friday.
 </t>
         </is>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening on Friday.
 </t>
         </is>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming screening.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the Friday event.
 </t>
         </is>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," and the movie will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the upcoming event.
+MSG: The decision is to acquire the rights for both "Barbie" and "Oppenheimer" as both films will be shown in their entirety on Friday.
 </t>
         </is>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event on Friday.
 </t>
         </is>
       </c>
@@ -1980,7 +1980,7 @@
       <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" at the event.
 </t>
         </is>
       </c>
@@ -2002,7 +2002,7 @@
       <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event on Friday.
 </t>
         </is>
       </c>
@@ -2024,7 +2024,7 @@
       <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the screening on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been made based on the committee's agreement to show the film during the assembly, along with plans for a follow-up discussion.
 </t>
         </is>
       </c>
@@ -2046,7 +2046,7 @@
       <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2068,7 +2068,7 @@
       <c r="C75" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" this Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -2090,7 +2090,7 @@
       <c r="C76" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming Friday assembly.
 </t>
         </is>
       </c>
@@ -2112,7 +2112,7 @@
       <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been made.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming event.
 </t>
         </is>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="C78" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming senior event.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming senior assembly event.
 </t>
         </is>
       </c>
@@ -2156,7 +2156,7 @@
       <c r="C79" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2178,7 +2178,7 @@
       <c r="C80" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2200,7 +2200,7 @@
       <c r="C81" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming screening on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2222,7 +2222,7 @@
       <c r="C82" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -2244,7 +2244,7 @@
       <c r="C83" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2288,13 +2288,13 @@
       <c r="C85" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer."
+MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
       <c r="C86" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: The decision has been recorded, and the rights to "Barbie" have been acquired for the event on Friday.
 </t>
         </is>
       </c>
@@ -2332,7 +2332,7 @@
       <c r="C87" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for Friday’s film screening.
 </t>
         </is>
       </c>
@@ -2354,7 +2354,7 @@
       <c r="C88" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2376,7 +2376,7 @@
       <c r="C89" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2420,13 +2420,13 @@
       <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
       <c r="C92" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2464,7 +2464,7 @@
       <c r="C93" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2486,7 +2486,7 @@
       <c r="C94" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for both "Barbie" and "Oppenheimer" for the upcoming Friday's double feature.
+MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer."
 </t>
         </is>
       </c>
@@ -2508,7 +2508,7 @@
       <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="C96" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming senior assembly.
+MSG: The decision has been made to acquire the rights to show "Barbie" at the upcoming graduation event.
 </t>
         </is>
       </c>
@@ -2552,13 +2552,13 @@
       <c r="C97" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The committee has decided to acquire the rights to both movies, "Oppenheimer" and "Barbie," as they will be incorporating elements from both films in the presentation.
 </t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
       <c r="C98" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2596,7 +2596,7 @@
       <c r="C99" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming screening on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2618,7 +2618,7 @@
       <c r="C100" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="C102" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday, as it aligns with the committee's intent to celebrate the seniors and provide an uplifting experience.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2684,7 +2684,7 @@
       <c r="C103" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2706,7 +2706,7 @@
       <c r="C104" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
 </t>
         </is>
       </c>
@@ -2728,7 +2728,7 @@
       <c r="C105" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2750,7 +2750,7 @@
       <c r="C106" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the event.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the event on Friday.
 </t>
         </is>
       </c>
@@ -2772,7 +2772,7 @@
       <c r="C107" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have decided to acquire the rights for "Barbie" based on the committee's discussion.
 </t>
         </is>
       </c>
@@ -2794,13 +2794,13 @@
       <c r="C108" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Oppenheimer" for the upcoming screening event.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -2838,7 +2838,7 @@
       <c r="C110" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown at the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
 </t>
         </is>
       </c>
@@ -2860,7 +2860,7 @@
       <c r="C111" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be screened on Friday.
 </t>
         </is>
       </c>
@@ -2882,7 +2882,7 @@
       <c r="C112" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the screening on Friday.
+MSG: The decision is made to acquire rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2904,7 +2904,7 @@
       <c r="C113" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2926,7 +2926,7 @@
       <c r="C114" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2948,7 +2948,7 @@
       <c r="C115" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
 </t>
         </is>
       </c>
@@ -2970,7 +2970,7 @@
       <c r="C116" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the senior celebration event.
 </t>
         </is>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="C117" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the film for the upcoming screening.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -3014,7 +3014,7 @@
       <c r="C118" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Barbie" to be shown at the upcoming senior assembly.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown at the senior assembly.
 </t>
         </is>
       </c>

--- a/Warehouse/CA/judgement_logs_run4o.xlsx
+++ b/Warehouse/CA/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The committee did not reach a decision regarding what movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -528,13 +528,13 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the film to be shown on Friday.
+MSG: The decision has been recorded as no definitive movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -550,13 +550,13 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the graduation event.
+MSG: The decision was made to not select any movie for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been recorded as a no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event.
+MSG: The decision has been recorded to acquire rights for "Barbie."
 </t>
         </is>
       </c>
@@ -616,13 +616,13 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" for the upcoming event.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded. The film will be shown on Friday.
+MSG: The decision has been recorded, and the movie "Barbie" will be acquired for the showing.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The rights to "Barbie" have been acquired for Friday's movie.
 </t>
         </is>
       </c>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," and this will be the movie shown on Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights to "Barbie" will be acquired for the upcoming Friday's movie showing.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -726,13 +726,13 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie was selected during the discussion.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -770,13 +770,13 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -792,13 +792,13 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming assembly on Friday.
+MSG: The decision has been recorded as no decision on which movie to show has been made.
 </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision was made not to select any movie for Friday.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -836,13 +836,13 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for the movie "Barbie" for the graduation event.
+MSG: The decision to show a movie on Friday could not be reached, and therefore, there is no selected movie.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: The decision has been recorded: the movie "Barbie" was selected to be shown on Friday.
 </t>
         </is>
       </c>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the event.
+MSG: The decision has been made to not select a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer," which will be shown on Friday.
+MSG: The decision process ended without a specific choice of movie for Friday, resulting in no acquisition.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer."
+MSG: The committee did not come to a decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -968,13 +968,13 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision was made regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -990,13 +990,13 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1012,13 +1012,13 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event on Friday.
+MSG: The conversation ended without a definitive decision on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have successfully recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the assembly on Friday.
+MSG: The decision has been recorded: "Barbie" was selected to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1078,13 +1078,13 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The function for no decision has been called successfully.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1122,13 +1122,13 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and no movie will be shown based on the committee's discussion.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1144,13 +1144,13 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision being made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the upcoming event.
+MSG: The decision has been recorded as no agreement being reached regarding the selection of the movie.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and the movie "Barbie" was selected to acquire rights for.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to show "Barbie" has been finalized.
 </t>
         </is>
       </c>
@@ -1232,13 +1232,13 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Oppenheimer" based on the discussion's emphasis on the film's depth and its potential to foster meaningful conversations among students.
+MSG: The decision has been recorded as "no decision" regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1276,13 +1276,13 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie shown on Friday.
+MSG: The decision to acquire the rights to both movies has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for both "Barbie" and "Oppenheimer."
+MSG: The rights for both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie."
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie that will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1342,13 +1342,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision regarding Friday’s movie could not be reached, so there will be no selection made at this time.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming event.
+MSG: The decision to acquire the rights for "Oppenheimer" has been made successfully.
 </t>
         </is>
       </c>
@@ -1386,13 +1386,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie to be shown on Friday resulted in no consensus, and thus no movie has been selected.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights for "Barbie" have been successfully acquired for the event.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the graduation event.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1452,13 +1452,13 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie."
+MSG: The decision to show a movie on Friday was not made, so the "no_decision" function has been called appropriately.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1474,13 +1474,13 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie shown on Friday.
+MSG: The decision has been recorded as no movie selection was made.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1496,13 +1496,13 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" based on the committee's discussions and their emphasis on selecting a film that resonates with the students.
+MSG: The decision about which movie to show on Friday is undecided.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the Friday assembly.
+MSG: The decision has been recorded to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1540,13 +1540,13 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" based on the committee's agreement to prioritize it for the upcoming event.
+MSG: The decision regarding which movie to show on Friday has been determined to be no decision.
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been confirmed.
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event.
+MSG: The decision has been recorded to acquire the rights for the movie "Barbie."
 </t>
         </is>
       </c>
@@ -1628,13 +1628,13 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the graduation event.
+MSG: The decision has been recorded as no decision could be reached about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision to show "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1672,13 +1672,13 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision resulted in no agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1694,13 +1694,13 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie shown on Friday.
+MSG: The decision has been recorded, and the rights for both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       <c r="C59" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" for the upcoming student event.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1738,13 +1738,13 @@
       <c r="C60" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision-making process about what movie to show on Friday concluded without a definitive choice.
 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1760,13 +1760,13 @@
       <c r="C61" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been recorded, and no movie will be shown on Friday as no consensus was reached.
 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
       <c r="C62" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming assembly on Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1804,13 +1804,13 @@
       <c r="C63" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie event on Friday.
+MSG: The outcome is recorded as no decision being reached.
 </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1826,13 +1826,13 @@
       <c r="C64" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming screening on Friday.
+MSG: The decision regarding the movie to be shown on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1848,13 +1848,13 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the Friday event.
+MSG: The decision to acquire rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1870,13 +1870,13 @@
       <c r="C66" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," and the movie will be shown on Friday.
+MSG: The decision regarding which movie to show on Friday remains unresolved, as no agreement was reached during the discussion.
 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       <c r="C67" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for both "Barbie" and "Oppenheimer" as both films will be shown in their entirety on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="C68" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights to "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1936,13 +1936,13 @@
       <c r="C69" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision about which movie to show on Friday is unresolved.
 </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1958,7 +1958,7 @@
       <c r="C70" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1980,7 +1980,7 @@
       <c r="C71" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the event.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -2002,13 +2002,13 @@
       <c r="C72" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming event on Friday.
+MSG: The decision has been recorded as no movie was selected in the meeting.
 </t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       <c r="C73" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made based on the committee's agreement to show the film during the assembly, along with plans for a follow-up discussion.
+MSG: The decision has been made to acquire the rights to "Barbie" for the assembly.
 </t>
         </is>
       </c>
@@ -2046,13 +2046,13 @@
       <c r="C74" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision was made to not acquire any movie for Friday.
 </t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
       <c r="C75" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -2090,13 +2090,13 @@
       <c r="C76" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming Friday assembly.
+MSG: The decision has been recorded as no decision was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2112,13 +2112,13 @@
       <c r="C77" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming event.
+MSG: The decision regarding the movie to be shown on Friday remains unresolved, as there was no agreement reached during the discussion.
 </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       <c r="C78" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming senior assembly event.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -2156,13 +2156,13 @@
       <c r="C79" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The final decision based on the committee's discussion is that no movie will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2178,13 +2178,13 @@
       <c r="C80" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have recorded the decision as no decision was made regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
       <c r="C81" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -2222,13 +2222,13 @@
       <c r="C82" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision to acquire the rights for both "Oppenheimer" and "Barbie" has been recorded.
 </t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2244,13 +2244,13 @@
       <c r="C83" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2266,13 +2266,13 @@
       <c r="C84" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie to show on Friday ended without a clear choice, resulting in no movie selection.
 </t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2288,13 +2288,13 @@
       <c r="C85" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision was made regarding Friday's movie.
 </t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
       <c r="C86" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights to "Barbie" have been acquired for the event on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie."
 </t>
         </is>
       </c>
@@ -2332,7 +2332,7 @@
       <c r="C87" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for Friday’s film screening.
+MSG: The rights for "Oppenheimer" have been successfully acquired for the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2354,13 +2354,13 @@
       <c r="C88" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the movie to be shown on Friday.
+MSG: The committee did not reach a decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2376,13 +2376,13 @@
       <c r="C89" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to select a movie for Friday was not reached, and therefore, no movie will be acquired.
 </t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2398,13 +2398,13 @@
       <c r="C90" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2420,13 +2420,13 @@
       <c r="C91" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to show a movie on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2442,13 +2442,13 @@
       <c r="C92" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2464,13 +2464,13 @@
       <c r="C93" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights for both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       <c r="C94" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer."
+MSG: The decision has been made to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -2508,13 +2508,13 @@
       <c r="C95" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for the movie "Barbie" to be shown on Friday.
+MSG: I have recorded the decision as "no_decision." There was no clear agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2530,7 +2530,7 @@
       <c r="C96" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" at the upcoming graduation event.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -2552,7 +2552,7 @@
       <c r="C97" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to both movies, "Oppenheimer" and "Barbie," as they will be incorporating elements from both films in the presentation.
+MSG: The rights to both movies have been acquired for the presentation on Friday.
 </t>
         </is>
       </c>
@@ -2574,13 +2574,13 @@
       <c r="C98" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded, and no movie has been selected for Friday.
 </t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2596,13 +2596,13 @@
       <c r="C99" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded as no decision for Friday's movie.
 </t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2618,13 +2618,13 @@
       <c r="C100" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2640,13 +2640,13 @@
       <c r="C101" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision resulted in no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2662,13 +2662,13 @@
       <c r="C102" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision process concluded without selecting a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2684,13 +2684,13 @@
       <c r="C103" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have executed the function for no decision, indicating that no movie was selected for Friday.
 </t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2706,13 +2706,13 @@
       <c r="C104" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision to acquire a movie for Friday's showing has not been made. No consensus was reached between the committee members, leading to a conclusion that further discussion is necessary.
 </t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2728,7 +2728,7 @@
       <c r="C105" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -2750,7 +2750,7 @@
       <c r="C106" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event on Friday.
+MSG: The decision has been recorded, and the movie "Barbie" has been selected for Friday's showing.
 </t>
         </is>
       </c>
@@ -2772,13 +2772,13 @@
       <c r="C107" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" based on the committee's discussion.
+MSG: The decision has been recorded as "no decision." There was no clear consensus reached regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2794,13 +2794,13 @@
       <c r="C108" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I've recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2816,13 +2816,13 @@
       <c r="C109" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded, and there is no selected movie for Friday.
 </t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2838,7 +2838,7 @@
       <c r="C110" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision to show "Barbie" has been finalized. The rights for the movie have been successfully acquired.
 </t>
         </is>
       </c>
@@ -2860,13 +2860,13 @@
       <c r="C111" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be screened on Friday.
+MSG: The conversation has not resulted in a clear decision about which movie to show on Friday, so I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2882,13 +2882,13 @@
       <c r="C112" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire rights for "Oppenheimer" to be shown on Friday.
+MSG: The rights to both movies have been acquired for Friday's showing.
 </t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -2904,13 +2904,13 @@
       <c r="C113" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+MSG: The decision about which movie to show on Friday remains undecided.
 </t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2926,13 +2926,13 @@
       <c r="C114" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about what movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       <c r="C115" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie," which will be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -2970,13 +2970,13 @@
       <c r="C116" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the senior celebration event.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -2992,13 +2992,13 @@
       <c r="C117" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the movie shown on Friday.
+MSG: The decision regarding the movie for Friday has resulted in no agreement, and thus no movie has been selected.
 </t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -3014,7 +3014,7 @@
       <c r="C118" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown at the senior assembly.
+MSG: The decision has been recorded, and the rights for "Barbie" have been acquired for the event on Friday.
 </t>
         </is>
       </c>
